--- a/docs/PHAN TICH CHUC NANG.xlsx
+++ b/docs/PHAN TICH CHUC NANG.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Trang chu" sheetId="1" r:id="rId1"/>
-    <sheet name="Chi tiet cau hoi" sheetId="2" r:id="rId2"/>
+    <sheet name="Trang chủ" sheetId="1" r:id="rId1"/>
+    <sheet name="Chi tiết câu hỏi" sheetId="2" r:id="rId2"/>
+    <sheet name="Chi tiết Topics" sheetId="3" r:id="rId3"/>
+    <sheet name="Thông tin cá nhân" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>PHÂN TÍCH CHỨC NĂNG TỪNG PAGE DỰ ÁN QUICKREP</t>
   </si>
@@ -161,12 +163,75 @@
   <si>
     <t>Lấy 5 câu hỏi cùng chủ đề</t>
   </si>
+  <si>
+    <t>CHI TIẾT TOPICS</t>
+  </si>
+  <si>
+    <t>PHÂN TÍCH CHỨC NĂNG PAGE CHI TIẾT TOPICS DỰ ÁN QUICKREP</t>
+  </si>
+  <si>
+    <t>Load thông tin Chủ đề</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/ZRskL0zpu1</t>
+  </si>
+  <si>
+    <t>Tính tổng kết số câu hỏi &amp; số lượng follow</t>
+  </si>
+  <si>
+    <t>Theo dõi chủ đề</t>
+  </si>
+  <si>
+    <t>Follows function</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/qx9ecFucTxhd</t>
+  </si>
+  <si>
+    <t>Faq top câu hỏi hay nhất thuộc chủ đề</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/s3qDB5YqOd</t>
+  </si>
+  <si>
+    <t>Chủ đề con, hoặc chủ để ngang hàng cùng chủ đề cha</t>
+  </si>
+  <si>
+    <t>CHI TIẾT THÔNG TIN CÁ NHÂN (USER)</t>
+  </si>
+  <si>
+    <t>profile.html</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/wHWQZKEbr</t>
+  </si>
+  <si>
+    <t>Thay đổi avatar</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/mJXZmBD3gX</t>
+  </si>
+  <si>
+    <t>đổi tên biệt danh, tên hiển thị</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/7yveOiuKP</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin, công việc , học vấn, nơi ở</t>
+  </si>
+  <si>
+    <t>Câu nói ưng ý, mô tả thêm về bản thân</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/q15t82hbw</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +275,14 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -234,16 +307,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -257,8 +328,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -563,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,25 +657,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -602,13 +683,13 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -616,11 +697,11 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="6"/>
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -628,7 +709,7 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="6"/>
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -640,11 +721,11 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="6"/>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -652,11 +733,11 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="6"/>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -664,11 +745,11 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="6"/>
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -676,11 +757,11 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="6"/>
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -688,11 +769,11 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="6"/>
       <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -700,11 +781,11 @@
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="6"/>
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -712,7 +793,7 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="6"/>
       <c r="D14" t="s">
         <v>22</v>
       </c>
@@ -721,7 +802,7 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="6"/>
       <c r="D15" t="s">
         <v>23</v>
       </c>
@@ -740,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -752,27 +833,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -780,13 +861,13 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -794,11 +875,11 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="6"/>
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -806,7 +887,7 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="6"/>
       <c r="D7" t="s">
         <v>32</v>
       </c>
@@ -815,21 +896,21 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="6"/>
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="6"/>
       <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -837,11 +918,11 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="6"/>
       <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -849,34 +930,34 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -885,4 +966,302 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="66.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C5:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="47.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="3:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="D6:D16"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>